--- a/data/pca/factorExposure/factorExposure_2015-11-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-11-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01563604150363147</v>
+        <v>-0.01260196061535618</v>
       </c>
       <c r="C2">
-        <v>-0.02864152628890534</v>
+        <v>0.03574077124904529</v>
       </c>
       <c r="D2">
-        <v>0.09278460232723125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.125599600514224</v>
+      </c>
+      <c r="E2">
+        <v>0.06842980957787477</v>
+      </c>
+      <c r="F2">
+        <v>-0.02711907326682349</v>
+      </c>
+      <c r="G2">
+        <v>0.07646230826198551</v>
+      </c>
+      <c r="H2">
+        <v>0.05969118013121682</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.01801977688103124</v>
+        <v>-0.01059803734580961</v>
       </c>
       <c r="C3">
-        <v>-0.05821969176702681</v>
+        <v>0.04381321250016746</v>
       </c>
       <c r="D3">
-        <v>0.1000115343542809</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.0615386030349831</v>
+      </c>
+      <c r="E3">
+        <v>0.04364071598086279</v>
+      </c>
+      <c r="F3">
+        <v>-0.05492597901763892</v>
+      </c>
+      <c r="G3">
+        <v>0.09633928526020215</v>
+      </c>
+      <c r="H3">
+        <v>-0.01209438867333712</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05438821476764039</v>
+        <v>-0.05300724922524899</v>
       </c>
       <c r="C4">
-        <v>-0.04449466436697021</v>
+        <v>0.06673743641197373</v>
       </c>
       <c r="D4">
-        <v>0.1196509935944086</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1433989586347836</v>
+      </c>
+      <c r="E4">
+        <v>0.05821440163530336</v>
+      </c>
+      <c r="F4">
+        <v>-0.02430739768081933</v>
+      </c>
+      <c r="G4">
+        <v>-0.03886141416638727</v>
+      </c>
+      <c r="H4">
+        <v>0.02289544315756901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.0417286100107399</v>
+        <v>-0.03946724458316105</v>
       </c>
       <c r="C6">
-        <v>-0.01399306601223199</v>
+        <v>0.028657395433835</v>
       </c>
       <c r="D6">
-        <v>0.137842723613856</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1392682717086855</v>
+      </c>
+      <c r="E6">
+        <v>0.03002234336734113</v>
+      </c>
+      <c r="F6">
+        <v>-0.01515899026490358</v>
+      </c>
+      <c r="G6">
+        <v>0.008224106267137002</v>
+      </c>
+      <c r="H6">
+        <v>0.04795210059004259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.01979728011344106</v>
+        <v>-0.01367561362784172</v>
       </c>
       <c r="C7">
-        <v>-0.02162467431926125</v>
+        <v>0.03424138516925336</v>
       </c>
       <c r="D7">
-        <v>0.104373182460075</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09862973743124853</v>
+      </c>
+      <c r="E7">
+        <v>0.0196313291331632</v>
+      </c>
+      <c r="F7">
+        <v>-0.02000908059007235</v>
+      </c>
+      <c r="G7">
+        <v>0.01171985514800756</v>
+      </c>
+      <c r="H7">
+        <v>0.04822327537837412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009028434088938223</v>
+        <v>-0.006094703835969887</v>
       </c>
       <c r="C8">
-        <v>-0.02690539602446618</v>
+        <v>0.03747597384191932</v>
       </c>
       <c r="D8">
-        <v>0.05907152704491928</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07736432083310954</v>
+      </c>
+      <c r="E8">
+        <v>0.03423594702768895</v>
+      </c>
+      <c r="F8">
+        <v>-0.04483448303267554</v>
+      </c>
+      <c r="G8">
+        <v>0.01885362766553158</v>
+      </c>
+      <c r="H8">
+        <v>0.02645138485945083</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.04448061085478754</v>
+        <v>-0.04198273066952087</v>
       </c>
       <c r="C9">
-        <v>-0.04486633253920663</v>
+        <v>0.06312640339067008</v>
       </c>
       <c r="D9">
-        <v>0.1083736841385853</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1209661345029253</v>
+      </c>
+      <c r="E9">
+        <v>0.04141538907946651</v>
+      </c>
+      <c r="F9">
+        <v>-0.004737835750989873</v>
+      </c>
+      <c r="G9">
+        <v>-0.02545514348764699</v>
+      </c>
+      <c r="H9">
+        <v>0.01807799176337319</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.1022270322183392</v>
+        <v>-0.1447075780796918</v>
       </c>
       <c r="C10">
-        <v>0.189689799788604</v>
+        <v>-0.1875820366201473</v>
       </c>
       <c r="D10">
-        <v>-0.004533940179049038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.004949241883137465</v>
+      </c>
+      <c r="E10">
+        <v>0.04697708906314116</v>
+      </c>
+      <c r="F10">
+        <v>-0.02947085877438593</v>
+      </c>
+      <c r="G10">
+        <v>-0.03067304029975646</v>
+      </c>
+      <c r="H10">
+        <v>-0.03074057506478117</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03205911202593904</v>
+        <v>-0.02783674689572865</v>
       </c>
       <c r="C11">
-        <v>-0.03827862467863535</v>
+        <v>0.04473091317755122</v>
       </c>
       <c r="D11">
-        <v>0.05693952082161315</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05767457751396195</v>
+      </c>
+      <c r="E11">
+        <v>-0.006571641535813798</v>
+      </c>
+      <c r="F11">
+        <v>-0.002040447505138997</v>
+      </c>
+      <c r="G11">
+        <v>0.004809865178098661</v>
+      </c>
+      <c r="H11">
+        <v>0.02163916246055847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03901459123021759</v>
+        <v>-0.03300133484281683</v>
       </c>
       <c r="C12">
-        <v>-0.0389701697755364</v>
+        <v>0.04661067845259009</v>
       </c>
       <c r="D12">
-        <v>0.06060485611641252</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05767428744001243</v>
+      </c>
+      <c r="E12">
+        <v>-2.670579713957659e-05</v>
+      </c>
+      <c r="F12">
+        <v>0.007084613514749532</v>
+      </c>
+      <c r="G12">
+        <v>0.008128405635350109</v>
+      </c>
+      <c r="H12">
+        <v>0.01436207174670631</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0164208219379564</v>
+        <v>-0.01727422595208171</v>
       </c>
       <c r="C13">
-        <v>-0.03285459743583487</v>
+        <v>0.04080964930656676</v>
       </c>
       <c r="D13">
-        <v>0.129592780014652</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1498830219973931</v>
+      </c>
+      <c r="E13">
+        <v>0.03543678182162396</v>
+      </c>
+      <c r="F13">
+        <v>-0.0379802832023213</v>
+      </c>
+      <c r="G13">
+        <v>0.0189562548515666</v>
+      </c>
+      <c r="H13">
+        <v>0.04700202886032547</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.005493950000273018</v>
+        <v>-0.007100363401868186</v>
       </c>
       <c r="C14">
-        <v>-0.01762784865009943</v>
+        <v>0.02374393811610838</v>
       </c>
       <c r="D14">
-        <v>0.08514358193586392</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.09146435438084215</v>
+      </c>
+      <c r="E14">
+        <v>0.03317828821897762</v>
+      </c>
+      <c r="F14">
+        <v>-7.527846118844002e-05</v>
+      </c>
+      <c r="G14">
+        <v>0.01927285472867919</v>
+      </c>
+      <c r="H14">
+        <v>0.0687008487867198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.002085352244256037</v>
+        <v>-0.001282046628648145</v>
       </c>
       <c r="C15">
-        <v>-0.001654301957315675</v>
+        <v>0.01178482593200153</v>
       </c>
       <c r="D15">
-        <v>0.002630938174652436</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.0352361994588444</v>
+      </c>
+      <c r="E15">
+        <v>0.008328736646926916</v>
+      </c>
+      <c r="F15">
+        <v>0.000801289744033274</v>
+      </c>
+      <c r="G15">
+        <v>0.009016771030619005</v>
+      </c>
+      <c r="H15">
+        <v>0.01694228981552702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.0322225628902416</v>
+        <v>-0.02841664292031822</v>
       </c>
       <c r="C16">
-        <v>-0.04022206702258781</v>
+        <v>0.04470855692178359</v>
       </c>
       <c r="D16">
-        <v>0.06615974269854397</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06326138218753204</v>
+      </c>
+      <c r="E16">
+        <v>0.00579103336485917</v>
+      </c>
+      <c r="F16">
+        <v>0.006808029927680135</v>
+      </c>
+      <c r="G16">
+        <v>0.005390643735111067</v>
+      </c>
+      <c r="H16">
+        <v>0.03323346995445798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.00865165030314931</v>
+        <v>-0.005784166512648519</v>
       </c>
       <c r="C19">
-        <v>-0.02717819865908984</v>
+        <v>0.02308374984995347</v>
       </c>
       <c r="D19">
-        <v>0.1532012224354928</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.117813106165011</v>
+      </c>
+      <c r="E19">
+        <v>0.05893401763719382</v>
+      </c>
+      <c r="F19">
+        <v>0.003105486762523932</v>
+      </c>
+      <c r="G19">
+        <v>0.03217518794226364</v>
+      </c>
+      <c r="H19">
+        <v>0.02059220348898612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.0152010414296919</v>
+        <v>-0.01510207053800813</v>
       </c>
       <c r="C20">
-        <v>-0.02743250167858247</v>
+        <v>0.03425070662737039</v>
       </c>
       <c r="D20">
-        <v>0.08391830555028992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.1001576728815197</v>
+      </c>
+      <c r="E20">
+        <v>0.05071167326562611</v>
+      </c>
+      <c r="F20">
+        <v>-0.002343335323129414</v>
+      </c>
+      <c r="G20">
+        <v>0.004750559010523413</v>
+      </c>
+      <c r="H20">
+        <v>0.04154659108871141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.008313977978498706</v>
+        <v>-0.00977406577691387</v>
       </c>
       <c r="C21">
-        <v>-0.02989059064891209</v>
+        <v>0.03829368264764577</v>
       </c>
       <c r="D21">
-        <v>0.1265707807839912</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1386683887752002</v>
+      </c>
+      <c r="E21">
+        <v>0.08032682948162231</v>
+      </c>
+      <c r="F21">
+        <v>-0.005290315657437664</v>
+      </c>
+      <c r="G21">
+        <v>-0.01048048735902986</v>
+      </c>
+      <c r="H21">
+        <v>0.0369277517322821</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.006692804416167426</v>
+        <v>-0.005388266429694623</v>
       </c>
       <c r="C22">
-        <v>-0.02782714563120675</v>
+        <v>0.0419852469957469</v>
       </c>
       <c r="D22">
-        <v>0.09775091937603712</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1526986721242588</v>
+      </c>
+      <c r="E22">
+        <v>0.03067149095766312</v>
+      </c>
+      <c r="F22">
+        <v>-0.08984255813033266</v>
+      </c>
+      <c r="G22">
+        <v>0.06715814715945907</v>
+      </c>
+      <c r="H22">
+        <v>0.03514859568721602</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.006809144788850131</v>
+        <v>-0.00548514700949019</v>
       </c>
       <c r="C23">
-        <v>-0.0277883518150374</v>
+        <v>0.04245815445564751</v>
       </c>
       <c r="D23">
-        <v>0.09703650996616296</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1521266876580089</v>
+      </c>
+      <c r="E23">
+        <v>0.03095073489622752</v>
+      </c>
+      <c r="F23">
+        <v>-0.08980581594224958</v>
+      </c>
+      <c r="G23">
+        <v>0.06621486210446777</v>
+      </c>
+      <c r="H23">
+        <v>0.03493247271867841</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.0357227392393407</v>
+        <v>-0.0302434660107104</v>
       </c>
       <c r="C24">
-        <v>-0.04887762893300852</v>
+        <v>0.05646153359409768</v>
       </c>
       <c r="D24">
-        <v>0.06472254839241687</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06587972477111576</v>
+      </c>
+      <c r="E24">
+        <v>0.01257100765454976</v>
+      </c>
+      <c r="F24">
+        <v>0.002662600811517141</v>
+      </c>
+      <c r="G24">
+        <v>-0.0005459938496660945</v>
+      </c>
+      <c r="H24">
+        <v>0.03523036906016219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.0393130533606714</v>
+        <v>-0.03445107047369744</v>
       </c>
       <c r="C25">
-        <v>-0.04792683837899313</v>
+        <v>0.05387680364842976</v>
       </c>
       <c r="D25">
-        <v>0.06531945911167325</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06281950275630083</v>
+      </c>
+      <c r="E25">
+        <v>0.01215049874917602</v>
+      </c>
+      <c r="F25">
+        <v>-0.001553912979128821</v>
+      </c>
+      <c r="G25">
+        <v>0.001232000394529307</v>
+      </c>
+      <c r="H25">
+        <v>0.01021948310959795</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01846598757219518</v>
+        <v>-0.01794578973457187</v>
       </c>
       <c r="C26">
-        <v>-0.006949178274438744</v>
+        <v>0.01758643285554913</v>
       </c>
       <c r="D26">
-        <v>0.05495248119914264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06418209048976198</v>
+      </c>
+      <c r="E26">
+        <v>0.02292815520743044</v>
+      </c>
+      <c r="F26">
+        <v>-0.007588245436889644</v>
+      </c>
+      <c r="G26">
+        <v>0.008301451623003525</v>
+      </c>
+      <c r="H26">
+        <v>0.04735759160051319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1507348987951051</v>
+        <v>-0.2044820131621218</v>
       </c>
       <c r="C28">
-        <v>0.2637548626728647</v>
+        <v>-0.249969928377427</v>
       </c>
       <c r="D28">
-        <v>-0.03715206814038825</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01440453242668522</v>
+      </c>
+      <c r="E28">
+        <v>0.07698162141747594</v>
+      </c>
+      <c r="F28">
+        <v>-0.01045505648556139</v>
+      </c>
+      <c r="G28">
+        <v>-0.05747487328597729</v>
+      </c>
+      <c r="H28">
+        <v>-0.02942621660060995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.003103557986406808</v>
+        <v>-0.004926531949393144</v>
       </c>
       <c r="C29">
-        <v>-0.01772718281383459</v>
+        <v>0.02236786127136316</v>
       </c>
       <c r="D29">
-        <v>0.06951187332140371</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.08834574009917426</v>
+      </c>
+      <c r="E29">
+        <v>0.02931547477197913</v>
+      </c>
+      <c r="F29">
+        <v>-0.01479074554039431</v>
+      </c>
+      <c r="G29">
+        <v>0.0009707304511257679</v>
+      </c>
+      <c r="H29">
+        <v>0.0701829831104181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.03665587493107984</v>
+        <v>-0.04055779776282467</v>
       </c>
       <c r="C30">
-        <v>-0.03306243681881488</v>
+        <v>0.06012503006442228</v>
       </c>
       <c r="D30">
-        <v>0.1655627639410468</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1795979761334128</v>
+      </c>
+      <c r="E30">
+        <v>0.02141005491554028</v>
+      </c>
+      <c r="F30">
+        <v>-0.01636505635550632</v>
+      </c>
+      <c r="G30">
+        <v>0.01655891779369502</v>
+      </c>
+      <c r="H30">
+        <v>0.07835306272899119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06516152470051208</v>
+        <v>-0.05336671438818921</v>
       </c>
       <c r="C31">
-        <v>-0.05210667262979422</v>
+        <v>0.07385548015114997</v>
       </c>
       <c r="D31">
-        <v>0.06640182692296172</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.0518479277934166</v>
+      </c>
+      <c r="E31">
+        <v>0.02771651493995582</v>
+      </c>
+      <c r="F31">
+        <v>-0.03124963930721153</v>
+      </c>
+      <c r="G31">
+        <v>-0.01223337759765645</v>
+      </c>
+      <c r="H31">
+        <v>0.009289710385975843</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.004821816750101218</v>
+        <v>-0.01150437104437314</v>
       </c>
       <c r="C32">
-        <v>-0.01787306571504685</v>
+        <v>0.01849441207396516</v>
       </c>
       <c r="D32">
-        <v>0.06168794475974437</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.1072623349565971</v>
+      </c>
+      <c r="E32">
+        <v>0.09477308811189515</v>
+      </c>
+      <c r="F32">
+        <v>-0.01945546876029045</v>
+      </c>
+      <c r="G32">
+        <v>-0.01078899660001373</v>
+      </c>
+      <c r="H32">
+        <v>0.02487611638327433</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02328484579464135</v>
+        <v>-0.02259854190455956</v>
       </c>
       <c r="C33">
-        <v>-0.03089968969460376</v>
+        <v>0.04475584793746849</v>
       </c>
       <c r="D33">
-        <v>0.1322990564649094</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1336056379607128</v>
+      </c>
+      <c r="E33">
+        <v>0.04036634913241855</v>
+      </c>
+      <c r="F33">
+        <v>-0.01849923032639737</v>
+      </c>
+      <c r="G33">
+        <v>0.01078966751269488</v>
+      </c>
+      <c r="H33">
+        <v>0.04189936110414651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03310418396678801</v>
+        <v>-0.0263311215327346</v>
       </c>
       <c r="C34">
-        <v>-0.06173035703121012</v>
+        <v>0.06161341622409885</v>
       </c>
       <c r="D34">
-        <v>0.0682005930109232</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05535685883771915</v>
+      </c>
+      <c r="E34">
+        <v>-0.006014997275971472</v>
+      </c>
+      <c r="F34">
+        <v>0.009530109636232041</v>
+      </c>
+      <c r="G34">
+        <v>0.01067454501074255</v>
+      </c>
+      <c r="H34">
+        <v>0.01990375859768219</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0008963166860114022</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0009830400120905203</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.005783501117822764</v>
+      </c>
+      <c r="E35">
+        <v>0.001412087906961318</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007716679790155386</v>
+      </c>
+      <c r="G35">
+        <v>0.001096472864687921</v>
+      </c>
+      <c r="H35">
+        <v>0.002465218798499315</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02016202752966545</v>
+        <v>-0.01903220792609344</v>
       </c>
       <c r="C36">
-        <v>-0.001865648040087407</v>
+        <v>0.01401319950992732</v>
       </c>
       <c r="D36">
-        <v>0.07066901121267774</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07653629859162644</v>
+      </c>
+      <c r="E36">
+        <v>0.03020079063546711</v>
+      </c>
+      <c r="F36">
+        <v>-0.005705923136155235</v>
+      </c>
+      <c r="G36">
+        <v>-0.004853040212432578</v>
+      </c>
+      <c r="H36">
+        <v>0.03888484000233607</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0199479994397382</v>
+        <v>-0.0199868884073447</v>
       </c>
       <c r="C38">
-        <v>-0.01404337747424292</v>
+        <v>0.01959643101118995</v>
       </c>
       <c r="D38">
-        <v>0.05443062653925766</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06133355027531368</v>
+      </c>
+      <c r="E38">
+        <v>0.03519578650498494</v>
+      </c>
+      <c r="F38">
+        <v>0.004960959302902538</v>
+      </c>
+      <c r="G38">
+        <v>0.03944333569158673</v>
+      </c>
+      <c r="H38">
+        <v>0.01816401632471558</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03811454195108015</v>
+        <v>-0.03430370536136977</v>
       </c>
       <c r="C39">
-        <v>-0.04881571411680574</v>
+        <v>0.06741772958614536</v>
       </c>
       <c r="D39">
-        <v>0.08772624738833706</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.103588553785294</v>
+      </c>
+      <c r="E39">
+        <v>0.006681236548201658</v>
+      </c>
+      <c r="F39">
+        <v>0.02534751622694677</v>
+      </c>
+      <c r="G39">
+        <v>0.0089063854937079</v>
+      </c>
+      <c r="H39">
+        <v>0.06535141443044014</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01783912437918362</v>
+        <v>-0.01230908680551052</v>
       </c>
       <c r="C40">
-        <v>-0.0435674834832726</v>
+        <v>0.04103928833635608</v>
       </c>
       <c r="D40">
-        <v>0.07360792885876055</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08206192706310238</v>
+      </c>
+      <c r="E40">
+        <v>0.05823746281963558</v>
+      </c>
+      <c r="F40">
+        <v>-0.07600450059329263</v>
+      </c>
+      <c r="G40">
+        <v>0.08129906387084261</v>
+      </c>
+      <c r="H40">
+        <v>0.04530692979867518</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02517954998778771</v>
+        <v>-0.02348369292840799</v>
       </c>
       <c r="C41">
-        <v>0.002772801887741773</v>
+        <v>0.008389836201317884</v>
       </c>
       <c r="D41">
-        <v>0.0652747567365605</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05560724168879522</v>
+      </c>
+      <c r="E41">
+        <v>0.05322702380268678</v>
+      </c>
+      <c r="F41">
+        <v>-0.004583330511799421</v>
+      </c>
+      <c r="G41">
+        <v>0.0208862208621715</v>
+      </c>
+      <c r="H41">
+        <v>0.01847515225421209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.02892477001070557</v>
+        <v>-0.02307533970909744</v>
       </c>
       <c r="C43">
-        <v>-0.008825616258011574</v>
+        <v>0.01826343308268503</v>
       </c>
       <c r="D43">
-        <v>0.1013213249758405</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08295589234623507</v>
+      </c>
+      <c r="E43">
+        <v>0.03065661695454742</v>
+      </c>
+      <c r="F43">
+        <v>-0.006704117584842308</v>
+      </c>
+      <c r="G43">
+        <v>0.02152014946885343</v>
+      </c>
+      <c r="H43">
+        <v>0.02303346594242765</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01352551308887129</v>
+        <v>-0.01600526741447987</v>
       </c>
       <c r="C44">
-        <v>-0.04554034885336922</v>
+        <v>0.04295124753802154</v>
       </c>
       <c r="D44">
-        <v>0.08231154125426186</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.1030503807521174</v>
+      </c>
+      <c r="E44">
+        <v>0.06186467742544813</v>
+      </c>
+      <c r="F44">
+        <v>-0.0148413616178686</v>
+      </c>
+      <c r="G44">
+        <v>0.01240849342812285</v>
+      </c>
+      <c r="H44">
+        <v>0.03273627257499128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01523387576142325</v>
+        <v>-0.01334087744070524</v>
       </c>
       <c r="C46">
-        <v>-0.02005018945016026</v>
+        <v>0.02946857601309239</v>
       </c>
       <c r="D46">
-        <v>0.07817247463127867</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0854787929137141</v>
+      </c>
+      <c r="E46">
+        <v>0.0338925471745718</v>
+      </c>
+      <c r="F46">
+        <v>0.01209648707740159</v>
+      </c>
+      <c r="G46">
+        <v>-0.004112261152133245</v>
+      </c>
+      <c r="H46">
+        <v>0.05116316175849345</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.0955011776912649</v>
+        <v>-0.08062114119221603</v>
       </c>
       <c r="C47">
-        <v>-0.07227116495100212</v>
+        <v>0.09244856225316875</v>
       </c>
       <c r="D47">
-        <v>0.04749338299487321</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.0346257473558424</v>
+      </c>
+      <c r="E47">
+        <v>0.03455507547756882</v>
+      </c>
+      <c r="F47">
+        <v>-0.01820378549365034</v>
+      </c>
+      <c r="G47">
+        <v>-0.02679116930191098</v>
+      </c>
+      <c r="H47">
+        <v>-0.07433737448419889</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.0139129144334938</v>
+        <v>-0.01606417857283036</v>
       </c>
       <c r="C48">
-        <v>-0.01242832913998758</v>
+        <v>0.01899029423009987</v>
       </c>
       <c r="D48">
-        <v>0.06292154769256969</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.0726514207107999</v>
+      </c>
+      <c r="E48">
+        <v>0.04918471274318015</v>
+      </c>
+      <c r="F48">
+        <v>-0.003783347385966754</v>
+      </c>
+      <c r="G48">
+        <v>-0.001412593388122596</v>
+      </c>
+      <c r="H48">
+        <v>0.04178608143319363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0602870029042763</v>
+        <v>-0.0514767656909698</v>
       </c>
       <c r="C50">
-        <v>-0.05251326425166843</v>
+        <v>0.06778553593763076</v>
       </c>
       <c r="D50">
-        <v>0.06446419871887285</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05470006476964455</v>
+      </c>
+      <c r="E50">
+        <v>0.03962234724366576</v>
+      </c>
+      <c r="F50">
+        <v>-0.04010332506141286</v>
+      </c>
+      <c r="G50">
+        <v>0.02390412084101672</v>
+      </c>
+      <c r="H50">
+        <v>0.0001194590563223591</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01027470706737414</v>
+        <v>-0.01037410033528767</v>
       </c>
       <c r="C51">
-        <v>-0.01381739299909494</v>
+        <v>0.01956352948144616</v>
       </c>
       <c r="D51">
-        <v>0.07735356990396175</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08928133908708558</v>
+      </c>
+      <c r="E51">
+        <v>0.01533801216820046</v>
+      </c>
+      <c r="F51">
+        <v>-0.007053526275409754</v>
+      </c>
+      <c r="G51">
+        <v>0.01764211988746112</v>
+      </c>
+      <c r="H51">
+        <v>0.07149468396633736</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.08862093588865928</v>
+        <v>-0.08462492425505752</v>
       </c>
       <c r="C53">
-        <v>-0.08647349439282219</v>
+        <v>0.1019585432019177</v>
       </c>
       <c r="D53">
-        <v>0.002452392069013187</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.01419309274663287</v>
+      </c>
+      <c r="E53">
+        <v>0.1101407093837749</v>
+      </c>
+      <c r="F53">
+        <v>-0.04721449085071587</v>
+      </c>
+      <c r="G53">
+        <v>-0.08326851679231211</v>
+      </c>
+      <c r="H53">
+        <v>-0.01716301931899233</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.02851947778861201</v>
+        <v>-0.0250383823467469</v>
       </c>
       <c r="C54">
-        <v>-0.02676723130938927</v>
+        <v>0.03495214012096253</v>
       </c>
       <c r="D54">
-        <v>0.08941243066104333</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08762403559296236</v>
+      </c>
+      <c r="E54">
+        <v>0.03718273486624946</v>
+      </c>
+      <c r="F54">
+        <v>0.007344810957341639</v>
+      </c>
+      <c r="G54">
+        <v>0.03124098534259259</v>
+      </c>
+      <c r="H54">
+        <v>0.04250012850173408</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.09242944540651023</v>
+        <v>-0.08334623440894183</v>
       </c>
       <c r="C55">
-        <v>-0.05927809746404499</v>
+        <v>0.08136581601234726</v>
       </c>
       <c r="D55">
-        <v>-0.01635809938296233</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.007807762527403187</v>
+      </c>
+      <c r="E55">
+        <v>0.05880182615516791</v>
+      </c>
+      <c r="F55">
+        <v>-0.04190837525124309</v>
+      </c>
+      <c r="G55">
+        <v>-0.04377358304775851</v>
+      </c>
+      <c r="H55">
+        <v>-0.005179151890543219</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1394883099874304</v>
+        <v>-0.1273323050356676</v>
       </c>
       <c r="C56">
-        <v>-0.09633455697444998</v>
+        <v>0.1271290345658069</v>
       </c>
       <c r="D56">
-        <v>-0.006610704748650398</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.009834482979323673</v>
+      </c>
+      <c r="E56">
+        <v>0.06148906002174895</v>
+      </c>
+      <c r="F56">
+        <v>-0.02825108349636002</v>
+      </c>
+      <c r="G56">
+        <v>-0.03876791699552815</v>
+      </c>
+      <c r="H56">
+        <v>-0.05658502186354984</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.01590769021160286</v>
+        <v>-0.02446681105446722</v>
       </c>
       <c r="C58">
-        <v>0.01095641381866827</v>
+        <v>0.02594228973846033</v>
       </c>
       <c r="D58">
-        <v>0.2971726117943715</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3538499949635686</v>
+      </c>
+      <c r="E58">
+        <v>0.1959314424532405</v>
+      </c>
+      <c r="F58">
+        <v>-0.1363232862216983</v>
+      </c>
+      <c r="G58">
+        <v>0.1878351389545755</v>
+      </c>
+      <c r="H58">
+        <v>0.1159767768573662</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.141582697615229</v>
+        <v>-0.1806680395995855</v>
       </c>
       <c r="C59">
-        <v>0.1913236508681712</v>
+        <v>-0.1672854389228661</v>
       </c>
       <c r="D59">
-        <v>0.02864839729347791</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.05171892179460044</v>
+      </c>
+      <c r="E59">
+        <v>0.01950068555588255</v>
+      </c>
+      <c r="F59">
+        <v>0.04196366924361352</v>
+      </c>
+      <c r="G59">
+        <v>-0.0009920674728865736</v>
+      </c>
+      <c r="H59">
+        <v>-0.007792883259618887</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.247448525814545</v>
+        <v>-0.2282191642951329</v>
       </c>
       <c r="C60">
-        <v>-0.06049909009082004</v>
+        <v>0.1048485283618444</v>
       </c>
       <c r="D60">
-        <v>0.2126606401471398</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1232071887459976</v>
+      </c>
+      <c r="E60">
+        <v>-0.3577147377516999</v>
+      </c>
+      <c r="F60">
+        <v>-0.02064244402380086</v>
+      </c>
+      <c r="G60">
+        <v>-0.04711044373369205</v>
+      </c>
+      <c r="H60">
+        <v>-0.07338206629435684</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04528204900714219</v>
+        <v>-0.03935401499911913</v>
       </c>
       <c r="C61">
-        <v>-0.04914707460712668</v>
+        <v>0.06260419567883585</v>
       </c>
       <c r="D61">
-        <v>0.09939958275896113</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09205557722664896</v>
+      </c>
+      <c r="E61">
+        <v>0.0008122427713122012</v>
+      </c>
+      <c r="F61">
+        <v>0.01915457627488625</v>
+      </c>
+      <c r="G61">
+        <v>0.001468412182024127</v>
+      </c>
+      <c r="H61">
+        <v>0.02365620231868026</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.016843807507001</v>
+        <v>-0.01453035746127798</v>
       </c>
       <c r="C63">
-        <v>-0.02205938200772176</v>
+        <v>0.03272200705998167</v>
       </c>
       <c r="D63">
-        <v>0.05961574895573569</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06683797758619207</v>
+      </c>
+      <c r="E63">
+        <v>0.02754483294049271</v>
+      </c>
+      <c r="F63">
+        <v>-0.01967210754179135</v>
+      </c>
+      <c r="G63">
+        <v>0.00558109835849405</v>
+      </c>
+      <c r="H63">
+        <v>0.04847187037016461</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05791722007192024</v>
+        <v>-0.05139369331827671</v>
       </c>
       <c r="C64">
-        <v>-0.06578066155287601</v>
+        <v>0.08296750882354788</v>
       </c>
       <c r="D64">
-        <v>0.05884707138796973</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.05438969216547792</v>
+      </c>
+      <c r="E64">
+        <v>0.0214654490767747</v>
+      </c>
+      <c r="F64">
+        <v>0.01426464303136342</v>
+      </c>
+      <c r="G64">
+        <v>-0.04866946077058015</v>
+      </c>
+      <c r="H64">
+        <v>0.04162851411497889</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.04904895914900319</v>
+        <v>-0.04510612038336286</v>
       </c>
       <c r="C65">
-        <v>-0.006898372572537583</v>
+        <v>0.02717795166509719</v>
       </c>
       <c r="D65">
-        <v>0.1185490013784662</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.119920945543313</v>
+      </c>
+      <c r="E65">
+        <v>0.003687784977107189</v>
+      </c>
+      <c r="F65">
+        <v>-0.01736980716388946</v>
+      </c>
+      <c r="G65">
+        <v>0.02728135121918878</v>
+      </c>
+      <c r="H65">
+        <v>0.02100679046189729</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04267358083324375</v>
+        <v>-0.03834938449873324</v>
       </c>
       <c r="C66">
-        <v>-0.05616517861980252</v>
+        <v>0.07736791041928302</v>
       </c>
       <c r="D66">
-        <v>0.1091162181559981</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1303335101120968</v>
+      </c>
+      <c r="E66">
+        <v>0.01283524153709571</v>
+      </c>
+      <c r="F66">
+        <v>0.01335591591582068</v>
+      </c>
+      <c r="G66">
+        <v>0.02039969088988201</v>
+      </c>
+      <c r="H66">
+        <v>0.04020070019249743</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.03982343071830682</v>
+        <v>-0.03744305980100893</v>
       </c>
       <c r="C67">
-        <v>-0.01849772106363031</v>
+        <v>0.0258299196117104</v>
       </c>
       <c r="D67">
-        <v>0.02490786131230676</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02117839495080808</v>
+      </c>
+      <c r="E67">
+        <v>0.01333690544077712</v>
+      </c>
+      <c r="F67">
+        <v>0.004518682735177404</v>
+      </c>
+      <c r="G67">
+        <v>0.03524921036110867</v>
+      </c>
+      <c r="H67">
+        <v>0.01753152895598844</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1630365787056868</v>
+        <v>-0.1982181468472045</v>
       </c>
       <c r="C68">
-        <v>0.2344205260726449</v>
+        <v>-0.1944391878896721</v>
       </c>
       <c r="D68">
-        <v>-0.01694831284745834</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.01329778103494801</v>
+      </c>
+      <c r="E68">
+        <v>0.05004566871552887</v>
+      </c>
+      <c r="F68">
+        <v>-0.03453772935176345</v>
+      </c>
+      <c r="G68">
+        <v>0.006917059342316022</v>
+      </c>
+      <c r="H68">
+        <v>0.0219105743539952</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08584770592783642</v>
+        <v>-0.07245536346174873</v>
       </c>
       <c r="C69">
-        <v>-0.08401459552047352</v>
+        <v>0.09728473127033606</v>
       </c>
       <c r="D69">
-        <v>0.0708115142519674</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04946294718642746</v>
+      </c>
+      <c r="E69">
+        <v>0.02117396086415587</v>
+      </c>
+      <c r="F69">
+        <v>-0.007090531707546722</v>
+      </c>
+      <c r="G69">
+        <v>-0.02246196411735809</v>
+      </c>
+      <c r="H69">
+        <v>-0.03457015684723755</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1426594508047409</v>
+        <v>-0.1862305741484854</v>
       </c>
       <c r="C71">
-        <v>0.2373882735134292</v>
+        <v>-0.2069363037883762</v>
       </c>
       <c r="D71">
-        <v>0.0152190580410201</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03891736079546002</v>
+      </c>
+      <c r="E71">
+        <v>0.05430148758250234</v>
+      </c>
+      <c r="F71">
+        <v>-0.03496652534588036</v>
+      </c>
+      <c r="G71">
+        <v>-0.01060696634566832</v>
+      </c>
+      <c r="H71">
+        <v>-0.02262352818223565</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.0970748537115813</v>
+        <v>-0.09826995509627667</v>
       </c>
       <c r="C72">
-        <v>-0.04497293827651568</v>
+        <v>0.07391866705915967</v>
       </c>
       <c r="D72">
-        <v>0.0904532454176754</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09577538175437179</v>
+      </c>
+      <c r="E72">
+        <v>-0.03400663498637215</v>
+      </c>
+      <c r="F72">
+        <v>-0.03804400160738818</v>
+      </c>
+      <c r="G72">
+        <v>-0.03029408986224348</v>
+      </c>
+      <c r="H72">
+        <v>0.04793314565701608</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2625738843135497</v>
+        <v>-0.2398360274644872</v>
       </c>
       <c r="C73">
-        <v>-0.02149217276375742</v>
+        <v>0.08988384317274944</v>
       </c>
       <c r="D73">
-        <v>0.3268575593077658</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1678258239213239</v>
+      </c>
+      <c r="E73">
+        <v>-0.6635708756473016</v>
+      </c>
+      <c r="F73">
+        <v>0.003583228789672605</v>
+      </c>
+      <c r="G73">
+        <v>-0.04518179160555539</v>
+      </c>
+      <c r="H73">
+        <v>-0.0379678567687607</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1089071543238323</v>
+        <v>-0.09693110043915493</v>
       </c>
       <c r="C74">
-        <v>-0.06870639181919541</v>
+        <v>0.09193922727237112</v>
       </c>
       <c r="D74">
-        <v>0.004915513024843199</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.00407024780120833</v>
+      </c>
+      <c r="E74">
+        <v>0.07775715187056639</v>
+      </c>
+      <c r="F74">
+        <v>-0.06669604112727358</v>
+      </c>
+      <c r="G74">
+        <v>-0.06127801605027004</v>
+      </c>
+      <c r="H74">
+        <v>-0.009046109922842251</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2467164540840296</v>
+        <v>-0.2239838598971895</v>
       </c>
       <c r="C75">
-        <v>-0.1303302664315264</v>
+        <v>0.1691995540514888</v>
       </c>
       <c r="D75">
-        <v>-0.07344658932952153</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.09676199818768345</v>
+      </c>
+      <c r="E75">
+        <v>0.1056256440213308</v>
+      </c>
+      <c r="F75">
+        <v>0.01460941049128132</v>
+      </c>
+      <c r="G75">
+        <v>-0.04815737490035623</v>
+      </c>
+      <c r="H75">
+        <v>-0.0990857588547068</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1395373953152099</v>
+        <v>-0.1246177581732078</v>
       </c>
       <c r="C76">
-        <v>-0.09060321434650902</v>
+        <v>0.1152731433934342</v>
       </c>
       <c r="D76">
-        <v>-0.01220400389014152</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01083541998608899</v>
+      </c>
+      <c r="E76">
+        <v>0.1179967378819807</v>
+      </c>
+      <c r="F76">
+        <v>-0.01808012108963993</v>
+      </c>
+      <c r="G76">
+        <v>-0.03959652754021036</v>
+      </c>
+      <c r="H76">
+        <v>-0.01206193326981433</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.06123138102274611</v>
+        <v>-0.05796084574520069</v>
       </c>
       <c r="C77">
-        <v>-0.05926389661336629</v>
+        <v>0.07188564057263237</v>
       </c>
       <c r="D77">
-        <v>0.0334752700441226</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1305664825560359</v>
+      </c>
+      <c r="E77">
+        <v>0.2332270473441613</v>
+      </c>
+      <c r="F77">
+        <v>0.2855283335336735</v>
+      </c>
+      <c r="G77">
+        <v>0.2633048341121068</v>
+      </c>
+      <c r="H77">
+        <v>-0.7077585544013058</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04087570725650441</v>
+        <v>-0.04235629687509094</v>
       </c>
       <c r="C78">
-        <v>-0.0538930452813591</v>
+        <v>0.06845665676504521</v>
       </c>
       <c r="D78">
-        <v>0.1191380462981237</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1334051600700404</v>
+      </c>
+      <c r="E78">
+        <v>0.01377717439142395</v>
+      </c>
+      <c r="F78">
+        <v>-0.009382175657992462</v>
+      </c>
+      <c r="G78">
+        <v>-0.007878306201971058</v>
+      </c>
+      <c r="H78">
+        <v>-0.01109028460912498</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.02603152105245231</v>
+        <v>-0.04570228844085953</v>
       </c>
       <c r="C79">
-        <v>-0.08232176712188907</v>
+        <v>0.09512577166447986</v>
       </c>
       <c r="D79">
-        <v>-0.06323783272696688</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.02236580162389167</v>
+      </c>
+      <c r="E79">
+        <v>0.2222828076432991</v>
+      </c>
+      <c r="F79">
+        <v>-0.142924337494365</v>
+      </c>
+      <c r="G79">
+        <v>-0.7669141088104874</v>
+      </c>
+      <c r="H79">
+        <v>0.01795877432335787</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03149020940845782</v>
+        <v>-0.02454026999493032</v>
       </c>
       <c r="C80">
-        <v>-0.03147136479783341</v>
+        <v>0.04632404123364323</v>
       </c>
       <c r="D80">
-        <v>0.01858600708440891</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.02410477070105892</v>
+      </c>
+      <c r="E80">
+        <v>0.02253661922817026</v>
+      </c>
+      <c r="F80">
+        <v>-0.004369816963062633</v>
+      </c>
+      <c r="G80">
+        <v>0.03255483708168249</v>
+      </c>
+      <c r="H80">
+        <v>0.05639957116636968</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1441138774900202</v>
+        <v>-0.124827958821752</v>
       </c>
       <c r="C81">
-        <v>-0.09850051540919974</v>
+        <v>0.1221482102070662</v>
       </c>
       <c r="D81">
-        <v>-0.06368681275345098</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07349088661693337</v>
+      </c>
+      <c r="E81">
+        <v>0.1107225591981053</v>
+      </c>
+      <c r="F81">
+        <v>-0.023789295399979</v>
+      </c>
+      <c r="G81">
+        <v>-0.04181262957283561</v>
+      </c>
+      <c r="H81">
+        <v>-0.02377299919837189</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.3142740556805724</v>
+        <v>-0.2529784106102882</v>
       </c>
       <c r="C82">
-        <v>-0.26175485271725</v>
+        <v>0.2673171282558823</v>
       </c>
       <c r="D82">
-        <v>-0.2286307226756923</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.24151166320923</v>
+      </c>
+      <c r="E82">
+        <v>-0.02264613302487794</v>
+      </c>
+      <c r="F82">
+        <v>-0.04208220780948096</v>
+      </c>
+      <c r="G82">
+        <v>0.002881825116628001</v>
+      </c>
+      <c r="H82">
+        <v>-0.2944899101485217</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02810301207128428</v>
+        <v>-0.02050578977983761</v>
       </c>
       <c r="C83">
-        <v>-0.05094982697048676</v>
+        <v>0.05217167822643312</v>
       </c>
       <c r="D83">
-        <v>0.0460491511679497</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04496109051309022</v>
+      </c>
+      <c r="E83">
+        <v>0.0174799420095516</v>
+      </c>
+      <c r="F83">
+        <v>0.05413724920421753</v>
+      </c>
+      <c r="G83">
+        <v>0.04839141872781858</v>
+      </c>
+      <c r="H83">
+        <v>-0.09187233433648903</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>-0.0006504361513623422</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.004637107290532875</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.0185230318930244</v>
+      </c>
+      <c r="E84">
+        <v>0.01932860286786877</v>
+      </c>
+      <c r="F84">
+        <v>-0.01037554972207582</v>
+      </c>
+      <c r="G84">
+        <v>0.005959798833898354</v>
+      </c>
+      <c r="H84">
+        <v>0.01976927498153365</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.17755393481417</v>
+        <v>-0.1550267060142551</v>
       </c>
       <c r="C85">
-        <v>-0.1014561955257629</v>
+        <v>0.137917367704629</v>
       </c>
       <c r="D85">
-        <v>-0.02808757713641605</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.05574392839134247</v>
+      </c>
+      <c r="E85">
+        <v>0.05243083804150145</v>
+      </c>
+      <c r="F85">
+        <v>-0.02395917538813272</v>
+      </c>
+      <c r="G85">
+        <v>-0.09763782957852093</v>
+      </c>
+      <c r="H85">
+        <v>0.02879011522878158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01486912043836214</v>
+        <v>-0.01953267905435118</v>
       </c>
       <c r="C86">
-        <v>-0.03385351196968039</v>
+        <v>0.02414553514303036</v>
       </c>
       <c r="D86">
-        <v>0.1284010783664598</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1209426619790811</v>
+      </c>
+      <c r="E86">
+        <v>0.004094511122494843</v>
+      </c>
+      <c r="F86">
+        <v>0.02024875964501342</v>
+      </c>
+      <c r="G86">
+        <v>0.01458918690780086</v>
+      </c>
+      <c r="H86">
+        <v>-0.0913577543863006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02819499856703053</v>
+        <v>-0.03544627934510015</v>
       </c>
       <c r="C87">
-        <v>-0.007508527216591096</v>
+        <v>0.02630976740062416</v>
       </c>
       <c r="D87">
-        <v>0.09910759006865374</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1381346577098874</v>
+      </c>
+      <c r="E87">
+        <v>0.07579193729484215</v>
+      </c>
+      <c r="F87">
+        <v>0.004227923392535859</v>
+      </c>
+      <c r="G87">
+        <v>0.02075234716741278</v>
+      </c>
+      <c r="H87">
+        <v>0.02409897893041032</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.07699109600466691</v>
+        <v>-0.06890491257910013</v>
       </c>
       <c r="C88">
-        <v>-0.03213032512283532</v>
+        <v>0.05297640182818712</v>
       </c>
       <c r="D88">
-        <v>0.04958744002718257</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02869874841125717</v>
+      </c>
+      <c r="E88">
+        <v>-0.001185734369894274</v>
+      </c>
+      <c r="F88">
+        <v>-0.02072171814814456</v>
+      </c>
+      <c r="G88">
+        <v>-0.008071216738388187</v>
+      </c>
+      <c r="H88">
+        <v>0.02706419621513978</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2135740803692452</v>
+        <v>-0.2861090696275592</v>
       </c>
       <c r="C89">
-        <v>0.3929913431805787</v>
+        <v>-0.3510097449979347</v>
       </c>
       <c r="D89">
-        <v>-0.03172176881481525</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.002830130124634584</v>
+      </c>
+      <c r="E89">
+        <v>0.04351479800913172</v>
+      </c>
+      <c r="F89">
+        <v>0.0400851317645277</v>
+      </c>
+      <c r="G89">
+        <v>-0.0415123372466017</v>
+      </c>
+      <c r="H89">
+        <v>0.04167322115555847</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1980783113729952</v>
+        <v>-0.2420292088142605</v>
       </c>
       <c r="C90">
-        <v>0.2998554271932285</v>
+        <v>-0.2475477979786702</v>
       </c>
       <c r="D90">
-        <v>-0.01623007351057351</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.01808767038180971</v>
+      </c>
+      <c r="E90">
+        <v>0.05180612214535625</v>
+      </c>
+      <c r="F90">
+        <v>-0.003893479063495024</v>
+      </c>
+      <c r="G90">
+        <v>0.06026678812171809</v>
+      </c>
+      <c r="H90">
+        <v>0.006178128213629787</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1846557991275373</v>
+        <v>-0.1556104066381948</v>
       </c>
       <c r="C91">
-        <v>-0.143276076297584</v>
+        <v>0.1596340360847831</v>
       </c>
       <c r="D91">
-        <v>-0.08335631429321552</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08565573601002625</v>
+      </c>
+      <c r="E91">
+        <v>0.1075575563657727</v>
+      </c>
+      <c r="F91">
+        <v>-0.02005016163718086</v>
+      </c>
+      <c r="G91">
+        <v>-0.09387036244967398</v>
+      </c>
+      <c r="H91">
+        <v>-0.05082455653607924</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1733265709559312</v>
+        <v>-0.227384294711713</v>
       </c>
       <c r="C92">
-        <v>0.2942921010319465</v>
+        <v>-0.2691647482661285</v>
       </c>
       <c r="D92">
-        <v>0.004048252667806234</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.03050506397284378</v>
+      </c>
+      <c r="E92">
+        <v>0.09503603005435135</v>
+      </c>
+      <c r="F92">
+        <v>0.003637780736457438</v>
+      </c>
+      <c r="G92">
+        <v>0.02617312376057751</v>
+      </c>
+      <c r="H92">
+        <v>-0.025091829614933</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2222103455549277</v>
+        <v>-0.2651691758530694</v>
       </c>
       <c r="C93">
-        <v>0.3169025086548136</v>
+        <v>-0.2616905865411878</v>
       </c>
       <c r="D93">
-        <v>0.003117739256158529</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.0002422191126762089</v>
+      </c>
+      <c r="E93">
+        <v>0.0050826728611832</v>
+      </c>
+      <c r="F93">
+        <v>-0.01598973142869403</v>
+      </c>
+      <c r="G93">
+        <v>-0.008103751546750682</v>
+      </c>
+      <c r="H93">
+        <v>0.02250410673196237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3959477764109133</v>
+        <v>-0.3349321792718799</v>
       </c>
       <c r="C94">
-        <v>-0.2138167170432578</v>
+        <v>0.2654840308001418</v>
       </c>
       <c r="D94">
-        <v>-0.4501130645776477</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4307118044752288</v>
+      </c>
+      <c r="E94">
+        <v>0.08921414857991604</v>
+      </c>
+      <c r="F94">
+        <v>-0.005942102699737543</v>
+      </c>
+      <c r="G94">
+        <v>0.4125107492726889</v>
+      </c>
+      <c r="H94">
+        <v>0.4336307181244148</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.07693238656950195</v>
+        <v>-0.06715928664187872</v>
       </c>
       <c r="C95">
-        <v>-0.06011587934467894</v>
+        <v>0.066705650087115</v>
       </c>
       <c r="D95">
-        <v>0.1015935003825937</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.0780746225670766</v>
+      </c>
+      <c r="E95">
+        <v>0.02516849660921166</v>
+      </c>
+      <c r="F95">
+        <v>0.9017757471395713</v>
+      </c>
+      <c r="G95">
+        <v>-0.1689405601812398</v>
+      </c>
+      <c r="H95">
+        <v>0.2561243008058352</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.169958103659473</v>
+        <v>-0.1618607881561102</v>
       </c>
       <c r="C98">
-        <v>-0.02510449316855506</v>
+        <v>0.06789311814669208</v>
       </c>
       <c r="D98">
-        <v>0.1803080397046065</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1259803402725592</v>
+      </c>
+      <c r="E98">
+        <v>-0.3133485562441268</v>
+      </c>
+      <c r="F98">
+        <v>-0.04235854782916666</v>
+      </c>
+      <c r="G98">
+        <v>-0.05491652775494952</v>
+      </c>
+      <c r="H98">
+        <v>-0.05786062689386681</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.003018433965898926</v>
+        <v>-0.005009698078516971</v>
       </c>
       <c r="C101">
-        <v>-0.01751815128242192</v>
+        <v>0.02162357419753238</v>
       </c>
       <c r="D101">
-        <v>0.07012647947699575</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.08823603348424511</v>
+      </c>
+      <c r="E101">
+        <v>0.02983409042879269</v>
+      </c>
+      <c r="F101">
+        <v>-0.0140565585807816</v>
+      </c>
+      <c r="G101">
+        <v>0.0003709518758338259</v>
+      </c>
+      <c r="H101">
+        <v>0.06932404725014449</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1280702680027429</v>
+        <v>-0.1042084919731723</v>
       </c>
       <c r="C102">
-        <v>-0.114016443675909</v>
+        <v>0.1207732745273011</v>
       </c>
       <c r="D102">
-        <v>-0.04738629914432495</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.06499494552104031</v>
+      </c>
+      <c r="E102">
+        <v>0.02428546735583445</v>
+      </c>
+      <c r="F102">
+        <v>0.02586917071173699</v>
+      </c>
+      <c r="G102">
+        <v>-0.02462609640989097</v>
+      </c>
+      <c r="H102">
+        <v>-0.07119351689913475</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
